--- a/resultado_a.xlsx
+++ b/resultado_a.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -552,6 +552,12 @@
           <t>Viável?</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Payback 
+ [anos]</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -614,6 +620,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -674,13 +681,14 @@
       <c r="R3" t="n">
         <v>18877.87604095258</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
         <v>4</v>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
       </c>
     </row>
     <row r="4">
@@ -742,13 +750,14 @@
       <c r="R4" t="n">
         <v>15875.7005106974</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
         <v>6</v>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
       </c>
     </row>
     <row r="5">
@@ -810,13 +819,14 @@
       <c r="R5" t="n">
         <v>14088.29341730272</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
         <v>6</v>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
       </c>
     </row>
     <row r="6">
@@ -878,13 +888,14 @@
       <c r="R6" t="n">
         <v>10738.14861412649</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
         <v>8</v>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
       </c>
     </row>
     <row r="7">
@@ -946,13 +957,14 @@
       <c r="R7" t="n">
         <v>9313.486502475049</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
         <v>9</v>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
       </c>
     </row>
     <row r="8">
@@ -1014,13 +1026,14 @@
       <c r="R8" t="n">
         <v>7894.481648023493</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
         <v>10</v>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
       </c>
     </row>
     <row r="9">
@@ -1082,13 +1095,14 @@
       <c r="R9" t="n">
         <v>5938.783527974514</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
         <v>11</v>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
       </c>
     </row>
     <row r="10">
@@ -1150,13 +1164,14 @@
       <c r="R10" t="n">
         <v>4000.134002748692</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
         <v>12</v>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
       </c>
     </row>
     <row r="11">
@@ -1218,13 +1233,14 @@
       <c r="R11" t="n">
         <v>1769.957489952837</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
         <v>14</v>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
       </c>
     </row>
     <row r="12">
@@ -1292,6 +1308,7 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="U12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1358,6 +1375,7 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="U13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1424,6 +1442,7 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="U14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1490,6 +1509,7 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="U15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1556,6 +1576,7 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="U16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1622,6 +1643,7 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="U17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1688,6 +1710,7 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="U18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1748,13 +1771,14 @@
       <c r="R19" t="n">
         <v>23089.35923724112</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
         <v>3</v>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
       </c>
     </row>
     <row r="20">
@@ -1816,13 +1840,14 @@
       <c r="R20" t="n">
         <v>22087.56889701948</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U20" t="n">
         <v>3</v>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
       </c>
     </row>
     <row r="21">
@@ -1884,13 +1909,14 @@
       <c r="R21" t="n">
         <v>21438.96462786543</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U21" t="n">
         <v>3</v>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
       </c>
     </row>
     <row r="22">
@@ -1952,13 +1978,14 @@
       <c r="R22" t="n">
         <v>19942.06666445813</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U22" t="n">
         <v>4</v>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
       </c>
     </row>
     <row r="23">
@@ -2020,13 +2047,14 @@
       <c r="R23" t="n">
         <v>19339.48217939097</v>
       </c>
-      <c r="S23" t="n">
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U23" t="n">
         <v>4</v>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
       </c>
     </row>
     <row r="24">
@@ -2088,13 +2116,14 @@
       <c r="R24" t="n">
         <v>18702.72513909424</v>
       </c>
-      <c r="S24" t="n">
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U24" t="n">
         <v>5</v>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
       </c>
     </row>
     <row r="25">
@@ -2150,13 +2179,14 @@
       <c r="R25" t="n">
         <v>17806.05749985129</v>
       </c>
-      <c r="S25" t="n">
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U25" t="n">
         <v>5</v>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
       </c>
     </row>
     <row r="26">
@@ -2212,13 +2242,14 @@
       <c r="R26" t="n">
         <v>16895.74057216701</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U26" t="n">
         <v>5</v>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
       </c>
     </row>
     <row r="27">
@@ -2274,13 +2305,14 @@
       <c r="R27" t="n">
         <v>15832.55711619429</v>
       </c>
-      <c r="S27" t="n">
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U27" t="n">
         <v>6</v>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
       </c>
     </row>
     <row r="28">
@@ -2336,13 +2368,14 @@
       <c r="R28" t="n">
         <v>14810.40472138382</v>
       </c>
-      <c r="S28" t="n">
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U28" t="n">
         <v>6</v>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
       </c>
     </row>
     <row r="29">
@@ -2398,13 +2431,14 @@
       <c r="R29" t="n">
         <v>13400.6996383012</v>
       </c>
-      <c r="S29" t="n">
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
         <v>7</v>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
       </c>
     </row>
     <row r="30">
@@ -2460,13 +2494,14 @@
       <c r="R30" t="n">
         <v>11509.00539091926</v>
       </c>
-      <c r="S30" t="n">
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U30" t="n">
         <v>8</v>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
       </c>
     </row>
     <row r="31">
@@ -2522,13 +2557,14 @@
       <c r="R31" t="n">
         <v>10092.43712042434</v>
       </c>
-      <c r="S31" t="n">
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
         <v>8</v>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
       </c>
     </row>
     <row r="32">
@@ -2584,13 +2620,14 @@
       <c r="R32" t="n">
         <v>8434.404101486629</v>
       </c>
-      <c r="S32" t="n">
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U32" t="n">
         <v>9</v>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
       </c>
     </row>
     <row r="33">
@@ -2646,13 +2683,14 @@
       <c r="R33" t="n">
         <v>6774.431520672856</v>
       </c>
-      <c r="S33" t="n">
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U33" t="n">
         <v>10</v>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
       </c>
     </row>
     <row r="34">
@@ -2708,13 +2746,14 @@
       <c r="R34" t="n">
         <v>5591.003127321663</v>
       </c>
-      <c r="S34" t="n">
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
         <v>11</v>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/resultado_a.xlsx
+++ b/resultado_a.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -544,18 +544,12 @@
       <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Payback 
- [$]</t>
+ [anos]</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Viável?</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Payback 
- [anos]</t>
         </is>
       </c>
     </row>
@@ -620,7 +614,6 @@
         <v>0</v>
       </c>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -681,14 +674,13 @@
       <c r="R3" t="n">
         <v>18877.87604095258</v>
       </c>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
       <c r="T3" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
-      </c>
-      <c r="U3" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -750,14 +742,13 @@
       <c r="R4" t="n">
         <v>15875.7005106974</v>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>6</v>
+      </c>
       <c r="T4" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
-      </c>
-      <c r="U4" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -819,14 +810,13 @@
       <c r="R5" t="n">
         <v>14088.29341730272</v>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>6</v>
+      </c>
       <c r="T5" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
-      </c>
-      <c r="U5" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -888,14 +878,13 @@
       <c r="R6" t="n">
         <v>10738.14861412649</v>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>8</v>
+      </c>
       <c r="T6" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
-      </c>
-      <c r="U6" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -957,14 +946,13 @@
       <c r="R7" t="n">
         <v>9313.486502475049</v>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>9</v>
+      </c>
       <c r="T7" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
-      </c>
-      <c r="U7" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1026,14 +1014,13 @@
       <c r="R8" t="n">
         <v>7894.481648023493</v>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
       <c r="T8" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
-      </c>
-      <c r="U8" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1095,14 +1082,13 @@
       <c r="R9" t="n">
         <v>5938.783527974514</v>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>11</v>
+      </c>
       <c r="T9" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
-      </c>
-      <c r="U9" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -1164,14 +1150,13 @@
       <c r="R10" t="n">
         <v>4000.134002748692</v>
       </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>12</v>
+      </c>
       <c r="T10" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
-      </c>
-      <c r="U10" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -1233,14 +1218,13 @@
       <c r="R11" t="n">
         <v>1769.957489952837</v>
       </c>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>14</v>
+      </c>
       <c r="T11" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
-      </c>
-      <c r="U11" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -1308,7 +1292,6 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1375,7 +1358,6 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1442,7 +1424,6 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1509,7 +1490,6 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1576,7 +1556,6 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1643,7 +1622,6 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1710,7 +1688,6 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1771,14 +1748,13 @@
       <c r="R19" t="n">
         <v>23089.35923724112</v>
       </c>
-      <c r="S19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
       <c r="T19" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
-      </c>
-      <c r="U19" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1840,14 +1816,13 @@
       <c r="R20" t="n">
         <v>22087.56889701948</v>
       </c>
-      <c r="S20" t="inlineStr"/>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
       <c r="T20" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
-      </c>
-      <c r="U20" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1909,14 +1884,13 @@
       <c r="R21" t="n">
         <v>21438.96462786543</v>
       </c>
-      <c r="S21" t="inlineStr"/>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
       <c r="T21" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
-      </c>
-      <c r="U21" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1978,14 +1952,13 @@
       <c r="R22" t="n">
         <v>19942.06666445813</v>
       </c>
-      <c r="S22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
       <c r="T22" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
-      </c>
-      <c r="U22" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -2047,14 +2020,13 @@
       <c r="R23" t="n">
         <v>19339.48217939097</v>
       </c>
-      <c r="S23" t="inlineStr"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
       <c r="T23" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
-      </c>
-      <c r="U23" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -2116,14 +2088,13 @@
       <c r="R24" t="n">
         <v>18702.72513909424</v>
       </c>
-      <c r="S24" t="inlineStr"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
-      </c>
-      <c r="U24" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -2179,14 +2150,13 @@
       <c r="R25" t="n">
         <v>17806.05749985129</v>
       </c>
-      <c r="S25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
-      </c>
-      <c r="U25" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -2242,14 +2212,13 @@
       <c r="R26" t="n">
         <v>16895.74057216701</v>
       </c>
-      <c r="S26" t="inlineStr"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
       <c r="T26" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
-      </c>
-      <c r="U26" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -2305,14 +2274,13 @@
       <c r="R27" t="n">
         <v>15832.55711619429</v>
       </c>
-      <c r="S27" t="inlineStr"/>
+      <c r="S27" t="n">
+        <v>6</v>
+      </c>
       <c r="T27" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
-      </c>
-      <c r="U27" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -2368,14 +2336,13 @@
       <c r="R28" t="n">
         <v>14810.40472138382</v>
       </c>
-      <c r="S28" t="inlineStr"/>
+      <c r="S28" t="n">
+        <v>6</v>
+      </c>
       <c r="T28" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
-      </c>
-      <c r="U28" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -2431,14 +2398,13 @@
       <c r="R29" t="n">
         <v>13400.6996383012</v>
       </c>
-      <c r="S29" t="inlineStr"/>
+      <c r="S29" t="n">
+        <v>7</v>
+      </c>
       <c r="T29" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
-      </c>
-      <c r="U29" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -2494,14 +2460,13 @@
       <c r="R30" t="n">
         <v>11509.00539091926</v>
       </c>
-      <c r="S30" t="inlineStr"/>
+      <c r="S30" t="n">
+        <v>8</v>
+      </c>
       <c r="T30" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
-      </c>
-      <c r="U30" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -2557,14 +2522,13 @@
       <c r="R31" t="n">
         <v>10092.43712042434</v>
       </c>
-      <c r="S31" t="inlineStr"/>
+      <c r="S31" t="n">
+        <v>8</v>
+      </c>
       <c r="T31" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
-      </c>
-      <c r="U31" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -2620,14 +2584,13 @@
       <c r="R32" t="n">
         <v>8434.404101486629</v>
       </c>
-      <c r="S32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>9</v>
+      </c>
       <c r="T32" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
-      </c>
-      <c r="U32" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -2683,14 +2646,13 @@
       <c r="R33" t="n">
         <v>6774.431520672856</v>
       </c>
-      <c r="S33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
       <c r="T33" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
-      </c>
-      <c r="U33" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -2746,14 +2708,13 @@
       <c r="R34" t="n">
         <v>5591.003127321663</v>
       </c>
-      <c r="S34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>11</v>
+      </c>
       <c r="T34" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
-      </c>
-      <c r="U34" t="n">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/resultado_a.xlsx
+++ b/resultado_a.xlsx
@@ -651,7 +651,7 @@
         <v>6.007129511220626</v>
       </c>
       <c r="K3" t="n">
-        <v>-4131.844348785256</v>
+        <v>4131.844348785256</v>
       </c>
       <c r="L3" t="n">
         <v>1036.570149932953</v>
@@ -719,7 +719,7 @@
         <v>6.004100416602341</v>
       </c>
       <c r="K4" t="n">
-        <v>-2376.359702897239</v>
+        <v>2376.359702897239</v>
       </c>
       <c r="L4" t="n">
         <v>596.1656165123951</v>
@@ -787,7 +787,7 @@
         <v>6.002910862683621</v>
       </c>
       <c r="K5" t="n">
-        <v>-1686.964387503094</v>
+        <v>1686.964387503094</v>
       </c>
       <c r="L5" t="n">
         <v>423.2146180917321</v>
@@ -855,7 +855,7 @@
         <v>6.002275094591198</v>
       </c>
       <c r="K6" t="n">
-        <v>-1318.510685890956</v>
+        <v>1318.510685890956</v>
       </c>
       <c r="L6" t="n">
         <v>330.7793575922097</v>
@@ -923,7 +923,7 @@
         <v>6.001879198887195</v>
       </c>
       <c r="K7" t="n">
-        <v>-1089.072877811508</v>
+        <v>1089.072877811508</v>
       </c>
       <c r="L7" t="n">
         <v>273.219497383264</v>
@@ -991,7 +991,7 @@
         <v>6.001608823258209</v>
       </c>
       <c r="K8" t="n">
-        <v>-932.3791045407247</v>
+        <v>932.3791045407247</v>
       </c>
       <c r="L8" t="n">
         <v>233.9091859721848</v>
@@ -1059,7 +1059,7 @@
         <v>6.001412341464288</v>
       </c>
       <c r="K9" t="n">
-        <v>-818.5098413023884</v>
+        <v>818.5098413023884</v>
       </c>
       <c r="L9" t="n">
         <v>205.3424082080566</v>
@@ -1127,7 +1127,7 @@
         <v>6.001263030325902</v>
       </c>
       <c r="K10" t="n">
-        <v>-731.9779088624897</v>
+        <v>731.9779088624897</v>
       </c>
       <c r="L10" t="n">
         <v>183.6338416185179</v>
@@ -1195,7 +1195,7 @@
         <v>6.001145669586322</v>
       </c>
       <c r="K11" t="n">
-        <v>-663.9625437762659</v>
+        <v>663.9625437762659</v>
       </c>
       <c r="L11" t="n">
         <v>166.5705906260407</v>
@@ -1263,7 +1263,7 @@
         <v>6.001050953716913</v>
       </c>
       <c r="K12" t="n">
-        <v>-609.0708102765211</v>
+        <v>609.0708102765211</v>
       </c>
       <c r="L12" t="n">
         <v>152.7997106942644</v>
@@ -1329,7 +1329,7 @@
         <v>6.000972872992065</v>
       </c>
       <c r="K13" t="n">
-        <v>-563.8198257849403</v>
+        <v>563.8198257849403</v>
       </c>
       <c r="L13" t="n">
         <v>141.4474389677552</v>
@@ -1395,7 +1395,7 @@
         <v>6.000907372910717</v>
       </c>
       <c r="K14" t="n">
-        <v>-525.8598405143313</v>
+        <v>525.8598405143313</v>
       </c>
       <c r="L14" t="n">
         <v>131.9242855520231</v>
@@ -1461,7 +1461,7 @@
         <v>6.000851618747106</v>
       </c>
       <c r="K15" t="n">
-        <v>-493.5480145416316</v>
+        <v>493.5480145416316</v>
       </c>
       <c r="L15" t="n">
         <v>123.8181054867029</v>
@@ -1527,7 +1527,7 @@
         <v>6.000803568849506</v>
       </c>
       <c r="K16" t="n">
-        <v>-465.7011269156022</v>
+        <v>465.7011269156022</v>
       </c>
       <c r="L16" t="n">
         <v>116.8320600200663</v>
@@ -1593,7 +1593,7 @@
         <v>6.000761715356646</v>
       </c>
       <c r="K17" t="n">
-        <v>-441.4453101013445</v>
+        <v>441.4453101013445</v>
       </c>
       <c r="L17" t="n">
         <v>110.7469189669448</v>
@@ -1659,7 +1659,7 @@
         <v>6.000724920399421</v>
       </c>
       <c r="K18" t="n">
-        <v>-420.121122347576</v>
+        <v>420.121122347576</v>
       </c>
       <c r="L18" t="n">
         <v>105.397245883635</v>
@@ -1725,7 +1725,7 @@
         <v>6.01285785857533</v>
       </c>
       <c r="K19" t="n">
-        <v>-7451.65673325954</v>
+        <v>7451.65673325954</v>
       </c>
       <c r="L19" t="n">
         <v>1869.423019169298</v>
@@ -1793,7 +1793,7 @@
         <v>6.008238013558866</v>
       </c>
       <c r="K20" t="n">
-        <v>-4774.266946935656</v>
+        <v>4774.266946935656</v>
       </c>
       <c r="L20" t="n">
         <v>1197.736939548552</v>
@@ -1861,7 +1861,7 @@
         <v>6.006121878678982</v>
       </c>
       <c r="K21" t="n">
-        <v>-3547.879937477518</v>
+        <v>3547.879937477518</v>
       </c>
       <c r="L21" t="n">
         <v>890.0689687926875</v>
@@ -1929,7 +1929,7 @@
         <v>6.004907375167988</v>
       </c>
       <c r="K22" t="n">
-        <v>-2844.025309418143</v>
+        <v>2844.025309418143</v>
       </c>
       <c r="L22" t="n">
         <v>713.4905123576074</v>
@@ -1997,7 +1997,7 @@
         <v>6.004119022927</v>
       </c>
       <c r="K23" t="n">
-        <v>-2387.142831643493</v>
+        <v>2387.142831643493</v>
       </c>
       <c r="L23" t="n">
         <v>598.8708174923248</v>
@@ -2065,7 +2065,7 @@
         <v>6.003565708918529</v>
       </c>
       <c r="K24" t="n">
-        <v>-2066.47465563895</v>
+        <v>2066.47465563895</v>
       </c>
       <c r="L24" t="n">
         <v>518.4236778566128</v>
@@ -2127,7 +2127,7 @@
         <v>6.003155749525718</v>
       </c>
       <c r="K25" t="n">
-        <v>-1828.886362706329</v>
+        <v>1828.886362706329</v>
       </c>
       <c r="L25" t="n">
         <v>458.8190771896284</v>
@@ -2189,7 +2189,7 @@
         <v>6.00283966969829</v>
       </c>
       <c r="K26" t="n">
-        <v>-1645.705130709128</v>
+        <v>1645.705130709128</v>
       </c>
       <c r="L26" t="n">
         <v>412.8637649639718</v>
@@ -2251,7 +2251,7 @@
         <v>6.002588419616302</v>
       </c>
       <c r="K27" t="n">
-        <v>-1500.095396862596</v>
+        <v>1500.095396862596</v>
       </c>
       <c r="L27" t="n">
         <v>376.3341450402755</v>
@@ -2313,7 +2313,7 @@
         <v>6.002383819799434</v>
       </c>
       <c r="K28" t="n">
-        <v>-1381.521406166221</v>
+        <v>1381.521406166221</v>
       </c>
       <c r="L28" t="n">
         <v>346.5870759498281</v>
@@ -2375,7 +2375,7 @@
         <v>6.002213911097158</v>
       </c>
       <c r="K29" t="n">
-        <v>-1283.052340106429</v>
+        <v>1283.052340106429</v>
       </c>
       <c r="L29" t="n">
         <v>321.8837991675446</v>
@@ -2437,7 +2437,7 @@
         <v>6.00207050356596</v>
       </c>
       <c r="K30" t="n">
-        <v>-1199.941790304299</v>
+        <v>1199.941790304299</v>
       </c>
       <c r="L30" t="n">
         <v>301.0335667296426</v>
@@ -2499,7 +2499,7 @@
         <v>6.001947799745722</v>
       </c>
       <c r="K31" t="n">
-        <v>-1128.829890690028</v>
+        <v>1128.829890690028</v>
       </c>
       <c r="L31" t="n">
         <v>283.1934773596612</v>
@@ -2561,7 +2561,7 @@
         <v>6.001841580306461</v>
       </c>
       <c r="K32" t="n">
-        <v>-1067.271366399043</v>
+        <v>1067.271366399043</v>
       </c>
       <c r="L32" t="n">
         <v>267.750076454998</v>
@@ -2623,7 +2623,7 @@
         <v>6.001748701139661</v>
       </c>
       <c r="K33" t="n">
-        <v>-1013.444077449189</v>
+        <v>1013.444077449189</v>
       </c>
       <c r="L33" t="n">
         <v>254.246237426396</v>
@@ -2685,7 +2685,7 @@
         <v>6.001666771256453</v>
       </c>
       <c r="K34" t="n">
-        <v>-965.9623477195656</v>
+        <v>965.9623477195656</v>
       </c>
       <c r="L34" t="n">
         <v>242.3343308901826</v>
